--- a/data/output/FV2504_FV2410/MSCONS/13017.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13017.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="365">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="365">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1255,6 +1255,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U173" totalsRowShown="0">
+  <autoFilter ref="A1:U173"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,7 +1574,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10022,5 +10055,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/MSCONS/13017.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="529">
   <si>
     <t>#</t>
   </si>
@@ -3970,44 +3970,42 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M38" s="5" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4033,9 +4031,7 @@
         <v>293</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>28</v>
       </c>
@@ -4087,9 +4083,7 @@
         <v>294</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>28</v>
       </c>
@@ -4147,9 +4141,7 @@
         <v>294</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>28</v>
       </c>
@@ -4178,44 +4170,42 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -4241,9 +4231,7 @@
         <v>293</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>29</v>
       </c>
@@ -4293,9 +4281,7 @@
         <v>302</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>29</v>
       </c>
@@ -4351,9 +4337,7 @@
       <c r="K45" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>29</v>
       </c>
@@ -4411,9 +4395,7 @@
         <v>294</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>29</v>
       </c>
@@ -4469,9 +4451,7 @@
         <v>294</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>29</v>
       </c>
@@ -4498,44 +4478,42 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="K48" s="2"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="V48" s="5"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -4561,9 +4539,7 @@
         <v>293</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>30</v>
       </c>
@@ -4611,9 +4587,7 @@
         <v>305</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>30</v>
       </c>
@@ -4665,9 +4639,7 @@
         <v>294</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>30</v>
       </c>
@@ -4694,52 +4666,50 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M52" s="5" t="s">
+      <c r="K52" s="2"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V52" s="5"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -4831,9 +4801,7 @@
         <v>307</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>31</v>
       </c>
@@ -4889,9 +4857,7 @@
         <v>307</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>31</v>
       </c>
@@ -4945,9 +4911,7 @@
         <v>307</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>31</v>
       </c>
@@ -5001,9 +4965,7 @@
         <v>307</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>31</v>
       </c>
@@ -5057,9 +5019,7 @@
         <v>307</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>31</v>
       </c>
@@ -5086,44 +5046,42 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M59" s="5" t="s">
+      <c r="K59" s="2"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V59" s="5"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -5149,9 +5107,7 @@
         <v>293</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>32</v>
       </c>
@@ -5199,9 +5155,7 @@
         <v>308</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>32</v>
       </c>
@@ -5255,9 +5209,7 @@
       <c r="K62" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>32</v>
       </c>
@@ -5315,9 +5267,7 @@
         <v>294</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>32</v>
       </c>
@@ -5373,9 +5323,7 @@
         <v>294</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>32</v>
       </c>
@@ -5402,48 +5350,46 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="K65" s="2"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5" t="s">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5" t="s">
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V65" s="5"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -5471,9 +5417,7 @@
         <v>151</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>33</v>
       </c>
@@ -5498,46 +5442,44 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5565,9 +5507,7 @@
         <v>293</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>34</v>
       </c>
@@ -5615,9 +5555,7 @@
         <v>310</v>
       </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>34</v>
       </c>
@@ -5642,44 +5580,42 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5705,9 +5641,7 @@
         <v>293</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>35</v>
       </c>
@@ -5755,9 +5689,7 @@
         <v>311</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>
@@ -5811,9 +5743,7 @@
       <c r="K73" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>35</v>
       </c>
@@ -5842,46 +5772,44 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="L74" s="4"/>
+      <c r="M74" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V74" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5909,9 +5837,7 @@
         <v>293</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>36</v>
       </c>
@@ -5963,9 +5889,7 @@
         <v>294</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>36</v>
       </c>
@@ -6021,9 +5945,7 @@
         <v>294</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>36</v>
       </c>
@@ -6050,46 +5972,44 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6117,9 +6037,7 @@
         <v>293</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>37</v>
       </c>
@@ -6171,9 +6089,7 @@
         <v>294</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>37</v>
       </c>
@@ -6231,9 +6147,7 @@
       <c r="K81" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>37</v>
       </c>
@@ -6262,44 +6176,42 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -6325,9 +6237,7 @@
         <v>293</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -6379,9 +6289,7 @@
       <c r="K84" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6410,52 +6318,50 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5" t="s">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6483,9 +6389,7 @@
         <v>317</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>39</v>
       </c>
@@ -6539,9 +6443,7 @@
       <c r="K87" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6599,9 +6501,7 @@
         <v>294</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6630,44 +6530,42 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="C89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="N89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6693,9 +6591,7 @@
         <v>293</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>40</v>
       </c>
@@ -6747,9 +6643,7 @@
         <v>294</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6805,9 +6699,7 @@
         <v>319</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6863,9 +6755,7 @@
       <c r="K93" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -6923,9 +6813,7 @@
       <c r="K94" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -7035,9 +6923,7 @@
         <v>294</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -7095,9 +6981,7 @@
       <c r="K97" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -7155,9 +7039,7 @@
         <v>294</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>41</v>
       </c>
@@ -7213,9 +7095,7 @@
         <v>294</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>41</v>
       </c>
@@ -7242,54 +7122,52 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K100" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O100" s="5" t="s">
+      <c r="N100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5" t="s">
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="V100" s="5" t="s">
+      <c r="V100" s="2" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7323,9 +7201,7 @@
         <v>294</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>42</v>
       </c>
@@ -7383,9 +7259,7 @@
       <c r="K102" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>42</v>
       </c>
@@ -7443,9 +7317,7 @@
         <v>294</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>42</v>
       </c>
@@ -7474,54 +7346,52 @@
       <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="s">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M104" s="5" t="s">
+      <c r="L104" s="4"/>
+      <c r="M104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N104" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O104" s="5" t="s">
+      <c r="N104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5" t="s">
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5" t="s">
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="V104" s="5" t="s">
+      <c r="V104" s="2" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7555,9 +7425,7 @@
         <v>294</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7673,9 +7541,7 @@
         <v>294</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7704,54 +7570,52 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M108" s="5" t="s">
+      <c r="L108" s="4"/>
+      <c r="M108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5" t="s">
+      <c r="N108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="V108" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7785,9 +7649,7 @@
         <v>294</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>44</v>
       </c>
@@ -7845,9 +7707,7 @@
         <v>329</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>44</v>
       </c>
@@ -7903,9 +7763,7 @@
         <v>330</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>44</v>
       </c>
@@ -7959,9 +7817,7 @@
         <v>330</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -8015,9 +7871,7 @@
         <v>330</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -8071,9 +7925,7 @@
         <v>330</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -8127,9 +7979,7 @@
         <v>330</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>44</v>
       </c>
@@ -8183,9 +8033,7 @@
         <v>331</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -8212,54 +8060,52 @@
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
+      <c r="C117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K117" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L117" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N117" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O117" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5" t="s">
+      <c r="N117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="V117" s="5" t="s">
+      <c r="V117" s="2" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8293,9 +8139,7 @@
         <v>294</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>45</v>
       </c>
@@ -8353,9 +8197,7 @@
         <v>331</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>45</v>
       </c>
@@ -8411,9 +8253,7 @@
         <v>331</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>45</v>
       </c>
@@ -8467,9 +8307,7 @@
         <v>331</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>45</v>
       </c>
@@ -8523,9 +8361,7 @@
         <v>331</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>45</v>
       </c>
@@ -8552,54 +8388,52 @@
       <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K123" s="5" t="s">
+      <c r="K123" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O123" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="V123" s="5" t="s">
+      <c r="V123" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8633,9 +8467,7 @@
         <v>294</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>46</v>
       </c>
@@ -8693,9 +8525,7 @@
         <v>331</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>46</v>
       </c>
@@ -8751,9 +8581,7 @@
         <v>331</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>46</v>
       </c>
@@ -8807,9 +8635,7 @@
         <v>331</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>46</v>
       </c>
@@ -8863,9 +8689,7 @@
         <v>331</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>46</v>
       </c>
@@ -8919,9 +8743,7 @@
         <v>331</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>46</v>
       </c>
@@ -8975,9 +8797,7 @@
         <v>331</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>46</v>
       </c>
@@ -9031,9 +8851,7 @@
         <v>331</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>46</v>
       </c>
@@ -9087,9 +8905,7 @@
         <v>331</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>46</v>
       </c>
@@ -9143,9 +8959,7 @@
         <v>331</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>46</v>
       </c>
@@ -9199,9 +9013,7 @@
         <v>331</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>46</v>
       </c>
@@ -9255,9 +9067,7 @@
         <v>331</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>46</v>
       </c>
@@ -9311,9 +9121,7 @@
         <v>334</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>46</v>
       </c>
@@ -9367,9 +9175,7 @@
         <v>334</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>46</v>
       </c>
@@ -9423,9 +9229,7 @@
         <v>334</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>46</v>
       </c>
@@ -9479,9 +9283,7 @@
         <v>334</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>46</v>
       </c>
@@ -9535,9 +9337,7 @@
         <v>334</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>46</v>
       </c>
@@ -9591,9 +9391,7 @@
         <v>334</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>46</v>
       </c>
@@ -9647,9 +9445,7 @@
         <v>334</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>46</v>
       </c>
@@ -9703,9 +9499,7 @@
         <v>334</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -9759,9 +9553,7 @@
         <v>331</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -9788,54 +9580,52 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5" t="s">
+      <c r="C145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K145" s="5" t="s">
+      <c r="K145" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L145" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M145" s="5" t="s">
+      <c r="L145" s="4"/>
+      <c r="M145" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N145" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5" t="s">
+      <c r="N145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="V145" s="5" t="s">
+      <c r="V145" s="2" t="s">
         <v>358</v>
       </c>
     </row>
@@ -9869,9 +9659,7 @@
         <v>294</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>47</v>
       </c>
@@ -9929,9 +9717,7 @@
         <v>331</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>47</v>
       </c>
@@ -9987,9 +9773,7 @@
         <v>331</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>47</v>
       </c>
@@ -10043,9 +9827,7 @@
         <v>331</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -10099,9 +9881,7 @@
         <v>331</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>47</v>
       </c>
@@ -10155,9 +9935,7 @@
         <v>331</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>47</v>
       </c>
@@ -10211,9 +9989,7 @@
         <v>331</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>47</v>
       </c>
@@ -10267,9 +10043,7 @@
         <v>331</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>47</v>
       </c>
@@ -10323,9 +10097,7 @@
         <v>331</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>47</v>
       </c>
@@ -10379,9 +10151,7 @@
         <v>331</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>47</v>
       </c>
@@ -10435,9 +10205,7 @@
         <v>331</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>47</v>
       </c>
@@ -10491,9 +10259,7 @@
         <v>331</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>47</v>
       </c>
@@ -10547,9 +10313,7 @@
         <v>331</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>47</v>
       </c>
@@ -10603,9 +10367,7 @@
         <v>331</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>47</v>
       </c>
@@ -10659,9 +10421,7 @@
         <v>331</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>47</v>
       </c>
@@ -10715,9 +10475,7 @@
         <v>331</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>47</v>
       </c>
@@ -10771,9 +10529,7 @@
         <v>331</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>47</v>
       </c>
@@ -10827,9 +10583,7 @@
         <v>331</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>47</v>
       </c>
@@ -10883,9 +10637,7 @@
         <v>331</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>47</v>
       </c>
@@ -10939,9 +10691,7 @@
         <v>331</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>47</v>
       </c>
@@ -10995,9 +10745,7 @@
         <v>331</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>47</v>
       </c>
@@ -11051,9 +10799,7 @@
         <v>331</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>47</v>
       </c>
@@ -11080,48 +10826,46 @@
       <c r="V167" s="5"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5" t="s">
+      <c r="N168" s="2"/>
+      <c r="O168" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -11149,9 +10893,7 @@
         <v>294</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>48</v>
       </c>
@@ -11201,9 +10943,7 @@
         <v>294</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>48</v>
       </c>
@@ -11228,48 +10968,46 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5" t="s">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5" t="s">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5" t="s">
+      <c r="N171" s="2"/>
+      <c r="O171" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5" t="s">
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -11297,9 +11035,7 @@
         <v>294</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>49</v>
       </c>
@@ -11349,9 +11085,7 @@
         <v>294</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>49</v>
       </c>

--- a/data/output/FV2504_FV2410/MSCONS/13017.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13017.xlsx
@@ -1737,7 +1737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1759,6 +1759,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3624,7 +3627,7 @@
         <v>337</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3814,22 +3817,22 @@
       <c r="B34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="10" t="s">
         <v>361</v>
       </c>
       <c r="M34" s="5"/>
@@ -3847,27 +3850,27 @@
       <c r="A35" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9" t="s">
+      <c r="K35" s="9"/>
+      <c r="L35" s="10" t="s">
         <v>361</v>
       </c>
       <c r="M35" s="5"/>
@@ -3885,33 +3888,33 @@
       <c r="A36" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="9" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="10" t="s">
         <v>361</v>
       </c>
       <c r="M36" s="5"/>
@@ -3929,33 +3932,33 @@
       <c r="A37" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="10" t="s">
         <v>361</v>
       </c>
       <c r="M37" s="5"/>
@@ -3990,7 +3993,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4190,7 +4193,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4498,7 +4501,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4690,7 +4693,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5066,7 +5069,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5372,7 +5375,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5464,7 +5467,7 @@
         <v>343</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5600,7 +5603,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5794,7 +5797,7 @@
         <v>345</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5994,7 +5997,7 @@
         <v>346</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6196,7 +6199,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6342,7 +6345,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6550,7 +6553,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6842,25 +6845,25 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
       <c r="J95" s="6" t="s">
         <v>322</v>
       </c>
@@ -6870,22 +6873,22 @@
       <c r="L95" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
       <c r="U95" s="6" t="s">
         <v>363</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>354</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7372,7 +7375,7 @@
         <v>356</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7596,7 +7599,7 @@
         <v>357</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8086,7 +8089,7 @@
         <v>358</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8414,7 +8417,7 @@
         <v>359</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9606,7 +9609,7 @@
         <v>358</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10848,7 +10851,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N168" s="2"/>
@@ -10990,7 +10993,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N171" s="2"/>
